--- a/Data/fs_XLS/V_gomeplus.xlsx
+++ b/Data/fs_XLS/V_gomeplus.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -774,7 +774,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
